--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Arf1-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Arf1-Insr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.98241433333334</v>
+        <v>51.22717533333333</v>
       </c>
       <c r="H2">
-        <v>173.947243</v>
+        <v>153.681526</v>
       </c>
       <c r="I2">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477903</v>
       </c>
       <c r="J2">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477904</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.18647466666667</v>
+        <v>21.85308466666666</v>
       </c>
       <c r="N2">
-        <v>69.55942400000001</v>
+        <v>65.559254</v>
       </c>
       <c r="O2">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="P2">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="Q2">
-        <v>1344.407781052004</v>
+        <v>1119.471799793511</v>
       </c>
       <c r="R2">
-        <v>12099.67002946803</v>
+        <v>10075.2461981416</v>
       </c>
       <c r="S2">
-        <v>0.07718951282826544</v>
+        <v>0.0720811806806054</v>
       </c>
       <c r="T2">
-        <v>0.07718951282826542</v>
+        <v>0.07208118068060541</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.98241433333334</v>
+        <v>51.22717533333333</v>
       </c>
       <c r="H3">
-        <v>173.947243</v>
+        <v>153.681526</v>
       </c>
       <c r="I3">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477903</v>
       </c>
       <c r="J3">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477904</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>21.625471</v>
       </c>
       <c r="O3">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="P3">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="Q3">
-        <v>417.9656732251615</v>
+        <v>369.2705981943051</v>
       </c>
       <c r="R3">
-        <v>3761.691059026453</v>
+        <v>3323.435383748746</v>
       </c>
       <c r="S3">
-        <v>0.02399760485612679</v>
+        <v>0.02377680323290732</v>
       </c>
       <c r="T3">
-        <v>0.02399760485612678</v>
+        <v>0.02377680323290733</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.98241433333334</v>
+        <v>51.22717533333333</v>
       </c>
       <c r="H4">
-        <v>173.947243</v>
+        <v>153.681526</v>
       </c>
       <c r="I4">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477903</v>
       </c>
       <c r="J4">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477904</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.814195333333333</v>
+        <v>11.375406</v>
       </c>
       <c r="N4">
-        <v>17.442586</v>
+        <v>34.126218</v>
       </c>
       <c r="O4">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="P4">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="Q4">
-        <v>337.1210828322664</v>
+        <v>582.7299176498519</v>
       </c>
       <c r="R4">
-        <v>3034.089745490398</v>
+        <v>5244.569258848668</v>
       </c>
       <c r="S4">
-        <v>0.01935589224840509</v>
+        <v>0.03752114210457197</v>
       </c>
       <c r="T4">
-        <v>0.01935589224840508</v>
+        <v>0.03752114210457198</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.98241433333334</v>
+        <v>51.22717533333333</v>
       </c>
       <c r="H5">
-        <v>173.947243</v>
+        <v>153.681526</v>
       </c>
       <c r="I5">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477903</v>
       </c>
       <c r="J5">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477904</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.361851666666666</v>
+        <v>3.401340666666667</v>
       </c>
       <c r="N5">
-        <v>10.085555</v>
+        <v>10.204022</v>
       </c>
       <c r="O5">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="P5">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="Q5">
-        <v>194.9282762638739</v>
+        <v>174.2410746997302</v>
       </c>
       <c r="R5">
-        <v>1754.354486374865</v>
+        <v>1568.169672297572</v>
       </c>
       <c r="S5">
-        <v>0.01119185629042409</v>
+        <v>0.01121913244239894</v>
       </c>
       <c r="T5">
-        <v>0.01119185629042409</v>
+        <v>0.01121913244239894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.98241433333334</v>
+        <v>51.22717533333333</v>
       </c>
       <c r="H6">
-        <v>173.947243</v>
+        <v>153.681526</v>
       </c>
       <c r="I6">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477903</v>
       </c>
       <c r="J6">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477904</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.695884666666667</v>
+        <v>9.847764666666666</v>
       </c>
       <c r="N6">
-        <v>23.087654</v>
+        <v>29.543294</v>
       </c>
       <c r="O6">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="P6">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="Q6">
-        <v>446.2259734042136</v>
+        <v>504.4731672207382</v>
       </c>
       <c r="R6">
-        <v>4016.033760637923</v>
+        <v>4540.258504986644</v>
       </c>
       <c r="S6">
-        <v>0.02562017713958577</v>
+        <v>0.03248230238730668</v>
       </c>
       <c r="T6">
-        <v>0.02562017713958577</v>
+        <v>0.03248230238730669</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>231.079704</v>
       </c>
       <c r="I7">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="J7">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.18647466666667</v>
+        <v>21.85308466666666</v>
       </c>
       <c r="N7">
-        <v>69.55942400000001</v>
+        <v>65.559254</v>
       </c>
       <c r="O7">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="P7">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="Q7">
-        <v>1785.974567592277</v>
+        <v>1683.268112086757</v>
       </c>
       <c r="R7">
-        <v>16073.7711083305</v>
+        <v>15149.41300878082</v>
       </c>
       <c r="S7">
-        <v>0.1025421815754779</v>
+        <v>0.1083832151409325</v>
       </c>
       <c r="T7">
-        <v>0.1025421815754779</v>
+        <v>0.1083832151409325</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>231.079704</v>
       </c>
       <c r="I8">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="J8">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>21.625471</v>
       </c>
       <c r="O8">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="P8">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="Q8">
         <v>555.2452708378427</v>
@@ -948,10 +948,10 @@
         <v>4997.207437540584</v>
       </c>
       <c r="S8">
-        <v>0.03187954767907842</v>
+        <v>0.03575144518753977</v>
       </c>
       <c r="T8">
-        <v>0.03187954767907841</v>
+        <v>0.03575144518753978</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>231.079704</v>
       </c>
       <c r="I9">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="J9">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.814195333333333</v>
+        <v>11.375406</v>
       </c>
       <c r="N9">
-        <v>17.442586</v>
+        <v>34.126218</v>
       </c>
       <c r="O9">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="P9">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="Q9">
-        <v>447.8475122082826</v>
+        <v>876.208483786608</v>
       </c>
       <c r="R9">
-        <v>4030.627609874543</v>
+        <v>7885.876354079472</v>
       </c>
       <c r="S9">
-        <v>0.02571327820020316</v>
+        <v>0.05641780529473939</v>
       </c>
       <c r="T9">
-        <v>0.02571327820020316</v>
+        <v>0.05641780529473939</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>231.079704</v>
       </c>
       <c r="I10">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="J10">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.361851666666666</v>
+        <v>3.401340666666667</v>
       </c>
       <c r="N10">
-        <v>10.085555</v>
+        <v>10.204022</v>
       </c>
       <c r="O10">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="P10">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="Q10">
-        <v>258.9518960084133</v>
+        <v>261.9935981521653</v>
       </c>
       <c r="R10">
-        <v>2330.56706407572</v>
+        <v>2357.942383369488</v>
       </c>
       <c r="S10">
-        <v>0.01486778861336559</v>
+        <v>0.01686939134067646</v>
       </c>
       <c r="T10">
-        <v>0.01486778861336558</v>
+        <v>0.01686939134067646</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>231.079704</v>
       </c>
       <c r="I11">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="J11">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.695884666666667</v>
+        <v>9.847764666666666</v>
       </c>
       <c r="N11">
-        <v>23.087654</v>
+        <v>29.543294</v>
       </c>
       <c r="O11">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="P11">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="Q11">
-        <v>592.7875835971573</v>
+        <v>758.5395147449973</v>
       </c>
       <c r="R11">
-        <v>5335.088252374416</v>
+        <v>6826.855632704976</v>
       </c>
       <c r="S11">
-        <v>0.0340350490627957</v>
+        <v>0.04884126945028723</v>
       </c>
       <c r="T11">
-        <v>0.0340350490627957</v>
+        <v>0.04884126945028724</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>103.359665</v>
+        <v>72.76991766666667</v>
       </c>
       <c r="H12">
-        <v>310.078995</v>
+        <v>218.309753</v>
       </c>
       <c r="I12">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="J12">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.18647466666667</v>
+        <v>21.85308466666666</v>
       </c>
       <c r="N12">
-        <v>69.55942400000001</v>
+        <v>65.559254</v>
       </c>
       <c r="O12">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="P12">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="Q12">
-        <v>2396.546254077654</v>
+        <v>1590.247171956029</v>
       </c>
       <c r="R12">
-        <v>21568.91628669888</v>
+        <v>14312.22454760426</v>
       </c>
       <c r="S12">
-        <v>0.1375983094042379</v>
+        <v>0.1023937304626409</v>
       </c>
       <c r="T12">
-        <v>0.1375983094042379</v>
+        <v>0.1023937304626409</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>103.359665</v>
+        <v>72.76991766666667</v>
       </c>
       <c r="H13">
-        <v>310.078995</v>
+        <v>218.309753</v>
       </c>
       <c r="I13">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="J13">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>21.625471</v>
       </c>
       <c r="O13">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="P13">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="Q13">
-        <v>745.0671460090717</v>
+        <v>524.5612480576293</v>
       </c>
       <c r="R13">
-        <v>6705.604314081645</v>
+        <v>4721.051232518663</v>
       </c>
       <c r="S13">
-        <v>0.04277821865906156</v>
+        <v>0.0337757450489241</v>
       </c>
       <c r="T13">
-        <v>0.04277821865906154</v>
+        <v>0.0337757450489241</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>103.359665</v>
+        <v>72.76991766666667</v>
       </c>
       <c r="H14">
-        <v>310.078995</v>
+        <v>218.309753</v>
       </c>
       <c r="I14">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="J14">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.814195333333333</v>
+        <v>11.375406</v>
       </c>
       <c r="N14">
-        <v>17.442586</v>
+        <v>34.126218</v>
       </c>
       <c r="O14">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="P14">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="Q14">
-        <v>600.9532818978967</v>
+        <v>827.787358044906</v>
       </c>
       <c r="R14">
-        <v>5408.57953708107</v>
+        <v>7450.086222404155</v>
       </c>
       <c r="S14">
-        <v>0.03450388469631416</v>
+        <v>0.05330003858191133</v>
       </c>
       <c r="T14">
-        <v>0.03450388469631415</v>
+        <v>0.05330003858191132</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>103.359665</v>
+        <v>72.76991766666667</v>
       </c>
       <c r="H15">
-        <v>310.078995</v>
+        <v>218.309753</v>
       </c>
       <c r="I15">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="J15">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.361851666666666</v>
+        <v>3.401340666666667</v>
       </c>
       <c r="N15">
-        <v>10.085555</v>
+        <v>10.204022</v>
       </c>
       <c r="O15">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="P15">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="Q15">
-        <v>347.4798620463583</v>
+        <v>247.5152802696184</v>
       </c>
       <c r="R15">
-        <v>3127.318758417225</v>
+        <v>2227.637522426566</v>
       </c>
       <c r="S15">
-        <v>0.0199506441773218</v>
+        <v>0.01593715325532621</v>
       </c>
       <c r="T15">
-        <v>0.0199506441773218</v>
+        <v>0.01593715325532621</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>103.359665</v>
+        <v>72.76991766666667</v>
       </c>
       <c r="H16">
-        <v>310.078995</v>
+        <v>218.309753</v>
       </c>
       <c r="I16">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="J16">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.695884666666667</v>
+        <v>9.847764666666666</v>
       </c>
       <c r="N16">
-        <v>23.087654</v>
+        <v>29.543294</v>
       </c>
       <c r="O16">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="P16">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="Q16">
-        <v>795.4440610253034</v>
+        <v>716.6210239940425</v>
       </c>
       <c r="R16">
-        <v>7158.996549227731</v>
+        <v>6449.589215946382</v>
       </c>
       <c r="S16">
-        <v>0.04567062197797944</v>
+        <v>0.04614219806123108</v>
       </c>
       <c r="T16">
-        <v>0.04567062197797944</v>
+        <v>0.04614219806123108</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>38.06883066666667</v>
+        <v>32.02005133333333</v>
       </c>
       <c r="H17">
-        <v>114.206492</v>
+        <v>96.06015400000001</v>
       </c>
       <c r="I17">
-        <v>0.1033127469630208</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="J17">
-        <v>0.1033127469630208</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.18647466666667</v>
+        <v>21.85308466666666</v>
       </c>
       <c r="N17">
-        <v>69.55942400000001</v>
+        <v>65.559254</v>
       </c>
       <c r="O17">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="P17">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="Q17">
-        <v>882.6819778422899</v>
+        <v>699.7368928183462</v>
       </c>
       <c r="R17">
-        <v>7944.13780058061</v>
+        <v>6297.632035365116</v>
       </c>
       <c r="S17">
-        <v>0.05067940903958561</v>
+        <v>0.04505505311471712</v>
       </c>
       <c r="T17">
-        <v>0.05067940903958559</v>
+        <v>0.04505505311471713</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>38.06883066666667</v>
+        <v>32.02005133333333</v>
       </c>
       <c r="H18">
-        <v>114.206492</v>
+        <v>96.06015400000001</v>
       </c>
       <c r="I18">
-        <v>0.1033127469630208</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="J18">
-        <v>0.1033127469630208</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>21.625471</v>
       </c>
       <c r="O18">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="P18">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="Q18">
-        <v>274.4187978619703</v>
+        <v>230.8162305091705</v>
       </c>
       <c r="R18">
-        <v>2469.769180757733</v>
+        <v>2077.346074582534</v>
       </c>
       <c r="S18">
-        <v>0.01575582469576943</v>
+        <v>0.01486192543520667</v>
       </c>
       <c r="T18">
-        <v>0.01575582469576942</v>
+        <v>0.01486192543520668</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>38.06883066666667</v>
+        <v>32.02005133333333</v>
       </c>
       <c r="H19">
-        <v>114.206492</v>
+        <v>96.06015400000001</v>
       </c>
       <c r="I19">
-        <v>0.1033127469630208</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="J19">
-        <v>0.1033127469630208</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.814195333333333</v>
+        <v>11.375406</v>
       </c>
       <c r="N19">
-        <v>17.442586</v>
+        <v>34.126218</v>
       </c>
       <c r="O19">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="P19">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="Q19">
-        <v>221.3396176075902</v>
+        <v>364.241084057508</v>
       </c>
       <c r="R19">
-        <v>1992.056558468312</v>
+        <v>3278.169756517573</v>
       </c>
       <c r="S19">
-        <v>0.01270827013464271</v>
+        <v>0.02345296004427408</v>
       </c>
       <c r="T19">
-        <v>0.01270827013464271</v>
+        <v>0.02345296004427408</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>38.06883066666667</v>
+        <v>32.02005133333333</v>
       </c>
       <c r="H20">
-        <v>114.206492</v>
+        <v>96.06015400000001</v>
       </c>
       <c r="I20">
-        <v>0.1033127469630208</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="J20">
-        <v>0.1033127469630208</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.361851666666666</v>
+        <v>3.401340666666667</v>
       </c>
       <c r="N20">
-        <v>10.085555</v>
+        <v>10.204022</v>
       </c>
       <c r="O20">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="P20">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="Q20">
-        <v>127.9817618247845</v>
+        <v>108.9111027488209</v>
       </c>
       <c r="R20">
-        <v>1151.83585642306</v>
+        <v>980.1999247393882</v>
       </c>
       <c r="S20">
-        <v>0.007348105229224407</v>
+        <v>0.007012629417560823</v>
       </c>
       <c r="T20">
-        <v>0.007348105229224406</v>
+        <v>0.007012629417560824</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>38.06883066666667</v>
+        <v>32.02005133333333</v>
       </c>
       <c r="H21">
-        <v>114.206492</v>
+        <v>96.06015400000001</v>
       </c>
       <c r="I21">
-        <v>0.1033127469630208</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="J21">
-        <v>0.1033127469630208</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.695884666666667</v>
+        <v>9.847764666666666</v>
       </c>
       <c r="N21">
-        <v>23.087654</v>
+        <v>29.543294</v>
       </c>
       <c r="O21">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="P21">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="Q21">
-        <v>292.9733302055298</v>
+        <v>315.3259301452529</v>
       </c>
       <c r="R21">
-        <v>2636.759971849768</v>
+        <v>2837.933371307277</v>
       </c>
       <c r="S21">
-        <v>0.01682113786379865</v>
+        <v>0.02030338356738629</v>
       </c>
       <c r="T21">
-        <v>0.01682113786379865</v>
+        <v>0.02030338356738629</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>92.04397066666667</v>
+        <v>56.24368933333333</v>
       </c>
       <c r="H22">
-        <v>276.131912</v>
+        <v>168.731068</v>
       </c>
       <c r="I22">
-        <v>0.2497926856283365</v>
+        <v>0.1944214957488556</v>
       </c>
       <c r="J22">
-        <v>0.2497926856283365</v>
+        <v>0.1944214957488557</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>23.18647466666667</v>
+        <v>21.85308466666666</v>
       </c>
       <c r="N22">
-        <v>69.55942400000001</v>
+        <v>65.559254</v>
       </c>
       <c r="O22">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="P22">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="Q22">
-        <v>2134.175194082077</v>
+        <v>1229.09810496703</v>
       </c>
       <c r="R22">
-        <v>19207.57674673869</v>
+        <v>11061.88294470327</v>
       </c>
       <c r="S22">
-        <v>0.1225342086256432</v>
+        <v>0.07913986095465707</v>
       </c>
       <c r="T22">
-        <v>0.1225342086256432</v>
+        <v>0.07913986095465708</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>92.04397066666667</v>
+        <v>56.24368933333333</v>
       </c>
       <c r="H23">
-        <v>276.131912</v>
+        <v>168.731068</v>
       </c>
       <c r="I23">
-        <v>0.2497926856283365</v>
+        <v>0.1944214957488556</v>
       </c>
       <c r="J23">
-        <v>0.2497926856283365</v>
+        <v>0.1944214957488557</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>21.625471</v>
       </c>
       <c r="O23">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="P23">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="Q23">
-        <v>663.4980727922836</v>
+        <v>405.4320908703364</v>
       </c>
       <c r="R23">
-        <v>5971.482655130552</v>
+        <v>3648.888817833028</v>
       </c>
       <c r="S23">
-        <v>0.03809490968674206</v>
+        <v>0.02610518978783634</v>
       </c>
       <c r="T23">
-        <v>0.03809490968674204</v>
+        <v>0.02610518978783635</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>92.04397066666667</v>
+        <v>56.24368933333333</v>
       </c>
       <c r="H24">
-        <v>276.131912</v>
+        <v>168.731068</v>
       </c>
       <c r="I24">
-        <v>0.2497926856283365</v>
+        <v>0.1944214957488556</v>
       </c>
       <c r="J24">
-        <v>0.2497926856283365</v>
+        <v>0.1944214957488557</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.814195333333333</v>
+        <v>11.375406</v>
       </c>
       <c r="N24">
-        <v>17.442586</v>
+        <v>34.126218</v>
       </c>
       <c r="O24">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="P24">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="Q24">
-        <v>535.1616247116035</v>
+        <v>639.794801104536</v>
       </c>
       <c r="R24">
-        <v>4816.454622404432</v>
+        <v>5758.153209940824</v>
       </c>
       <c r="S24">
-        <v>0.03072644005641455</v>
+        <v>0.04119546795679395</v>
       </c>
       <c r="T24">
-        <v>0.03072644005641454</v>
+        <v>0.04119546795679395</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>92.04397066666667</v>
+        <v>56.24368933333333</v>
       </c>
       <c r="H25">
-        <v>276.131912</v>
+        <v>168.731068</v>
       </c>
       <c r="I25">
-        <v>0.2497926856283365</v>
+        <v>0.1944214957488556</v>
       </c>
       <c r="J25">
-        <v>0.2497926856283365</v>
+        <v>0.1944214957488557</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.361851666666666</v>
+        <v>3.401340666666667</v>
       </c>
       <c r="N25">
-        <v>10.085555</v>
+        <v>10.204022</v>
       </c>
       <c r="O25">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="P25">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="Q25">
-        <v>309.4381761923511</v>
+        <v>191.3039477728329</v>
       </c>
       <c r="R25">
-        <v>2784.94358573116</v>
+        <v>1721.735529955496</v>
       </c>
       <c r="S25">
-        <v>0.01776647116105215</v>
+        <v>0.0123177863228624</v>
       </c>
       <c r="T25">
-        <v>0.01776647116105215</v>
+        <v>0.0123177863228624</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>92.04397066666667</v>
+        <v>56.24368933333333</v>
       </c>
       <c r="H26">
-        <v>276.131912</v>
+        <v>168.731068</v>
       </c>
       <c r="I26">
-        <v>0.2497926856283365</v>
+        <v>0.1944214957488556</v>
       </c>
       <c r="J26">
-        <v>0.2497926856283365</v>
+        <v>0.1944214957488557</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.695884666666667</v>
+        <v>9.847764666666666</v>
       </c>
       <c r="N26">
-        <v>23.087654</v>
+        <v>29.543294</v>
       </c>
       <c r="O26">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="P26">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="Q26">
-        <v>708.3597825127165</v>
+        <v>553.8746165397769</v>
       </c>
       <c r="R26">
-        <v>6375.238042614448</v>
+        <v>4984.871548857992</v>
       </c>
       <c r="S26">
-        <v>0.04067065609848446</v>
+        <v>0.03566319072670587</v>
       </c>
       <c r="T26">
-        <v>0.04067065609848446</v>
+        <v>0.03566319072670587</v>
       </c>
     </row>
   </sheetData>
